--- a/results/table2/RRT.xlsx
+++ b/results/table2/RRT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/table2/RRT.xlsx
+++ b/results/table2/RRT.xlsx
@@ -939,17 +939,17 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7 (1.3)</t>
+          <t>469 (90.0)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>21 (0.8)</t>
+          <t>2411 (93.0)</t>
         </is>
       </c>
     </row>
@@ -957,17 +957,17 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>45 (8.6)</t>
+          <t>7 (1.3)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>161 (6.2)</t>
+          <t>21 (0.8)</t>
         </is>
       </c>
     </row>
@@ -975,17 +975,17 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>469 (90.0)</t>
+          <t>45 (8.6)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2411 (93.0)</t>
+          <t>161 (6.2)</t>
         </is>
       </c>
     </row>

--- a/results/table2/RRT.xlsx
+++ b/results/table2/RRT.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,17 +939,17 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>469 (90.0)</t>
+          <t>476 (91.4)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2411 (93.0)</t>
+          <t>2432 (93.8)</t>
         </is>
       </c>
     </row>
@@ -957,57 +957,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>45 (8.6)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>161 (6.2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes Type, n (%)</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>14 (2.7)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>59 (2.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>7 (1.3)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>21 (0.8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>45 (8.6)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>161 (6.2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14 (2.7)</t>
+          <t>207 (39.7)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>59 (2.3)</t>
+          <t>775 (29.9)</t>
         </is>
       </c>
     </row>
@@ -1015,42 +1015,46 @@
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>207 (39.7)</t>
+          <t>300 (57.6)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>775 (29.9)</t>
+          <t>1759 (67.8)</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Connective Tissue Disease, n (%)</t>
+        </is>
+      </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>300 (57.6)</t>
+          <t>24 (4.6)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1759 (67.8)</t>
+          <t>93 (3.6)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Pneumonia, n (%)</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1060,19 +1064,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>24 (4.6)</t>
+          <t>28 (5.4)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93 (3.6)</t>
+          <t>122 (4.7)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pneumonia, n (%)</t>
+          <t>Urinary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1082,19 +1086,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>28 (5.4)</t>
+          <t>5 (1.0)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>122 (4.7)</t>
+          <t>29 (1.1)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Urinary Tract Infection, n (%)</t>
+          <t>Biliary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1102,21 +1106,17 @@
           <t>1.0</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>5 (1.0)</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>29 (1.1)</t>
+          <t>9 (0.3)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1127,203 +1127,185 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9 (0.3)</t>
+          <t>1 (0.0)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>69 [57,78]</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1 (0.0)</t>
+          <t>70 [60,80]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>69 [57,78]</t>
+          <t>5.50 [3.13,10.08]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>70 [60,80]</t>
+          <t>5.79 [3.38,10.71]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5.50 [3.13,10.08]</t>
+          <t>4.83 [2.99,8.52]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5.79 [3.38,10.71]</t>
+          <t>4.38 [2.88,8.00]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.83 [2.99,8.52]</t>
+          <t>6 [5,9]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.38 [2.88,8.00]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6 [5,9]</t>
+          <t>7 [4,10]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>7 [4,10]</t>
+          <t>0.36 [0.17,0.57]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>0.29 [0.14,0.49]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.36 [0.17,0.57]</t>
+          <t>3.0 [1.0,8.0]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.29 [0.14,0.49]</t>
+          <t>3.0 [1.0,7.0]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3.0 [1.0,8.0]</t>
+          <t>34.0 [12.0,74.0]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3.0 [1.0,7.0]</t>
+          <t>36.0 [11.0,76.2]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>34.0 [12.0,74.0]</t>
+          <t>3.0 [1.0,11.0]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>36.0 [11.0,76.2]</t>
+          <t>3.0 [1.0,8.0]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3.0 [1.0,11.0]</t>
+          <t>0.27 [0.07,0.52]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,8.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0.27 [0.07,0.52]</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
         <is>
           <t>0.28 [0.10,0.52]</t>
         </is>
@@ -1332,10 +1314,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
